--- a/03.warehouse/11.cost.vs.cash/cost_vs_cash_analysis_2025.xlsx
+++ b/03.warehouse/11.cost.vs.cash/cost_vs_cash_analysis_2025.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="88">
   <si>
     <t>Cost</t>
   </si>
@@ -26,138 +26,129 @@
     <t>PROJECT_NAME</t>
   </si>
   <si>
+    <t>Kattameya Creeks</t>
+  </si>
+  <si>
+    <t>Mivida BP#189</t>
+  </si>
+  <si>
+    <t>Wady El Natroon Bridge</t>
+  </si>
+  <si>
+    <t>Playa Seashell Project</t>
+  </si>
+  <si>
+    <t>HSR</t>
+  </si>
+  <si>
+    <t>Radamis City</t>
+  </si>
+  <si>
+    <t>Le Galawa Hotel Resort</t>
+  </si>
+  <si>
+    <t>Damietta Container Termin</t>
+  </si>
+  <si>
+    <t>Playa Resort</t>
+  </si>
+  <si>
+    <t>Koumassi Flyover</t>
+  </si>
+  <si>
+    <t>ORA ZED-Ph 2-Pkgs A&amp;D</t>
+  </si>
+  <si>
+    <t>Playa Ras EL HEKMA</t>
+  </si>
+  <si>
     <t>Qasr Rashwan - Lot B</t>
   </si>
   <si>
-    <t>Radamis City</t>
-  </si>
-  <si>
-    <t>Wady El Natroon Bridge</t>
-  </si>
-  <si>
-    <t>HSR</t>
-  </si>
-  <si>
-    <t>Le Galawa Hotel Resort</t>
-  </si>
-  <si>
-    <t>Egyptian University in Alamein</t>
-  </si>
-  <si>
-    <t>Mivida BP#189</t>
-  </si>
-  <si>
-    <t>Damietta Container Termin</t>
-  </si>
-  <si>
-    <t>Playa Resort</t>
-  </si>
-  <si>
-    <t>Koumassi Flyover</t>
-  </si>
-  <si>
-    <t>ORA ZED-Ph 2-Pkgs A&amp;D</t>
-  </si>
-  <si>
-    <t>Playa Seashell Project</t>
-  </si>
-  <si>
-    <t>Playa Ras EL HEKMA</t>
-  </si>
-  <si>
-    <t>Kattameya Creeks</t>
-  </si>
-  <si>
     <t>Qasr Rashwan Lot A</t>
   </si>
   <si>
-    <t>103848866.3283000000</t>
-  </si>
-  <si>
-    <t>112768186.4997000000</t>
-  </si>
-  <si>
-    <t>115042768.7182000000</t>
-  </si>
-  <si>
-    <t>124199351.9176000000</t>
-  </si>
-  <si>
-    <t>131733117.1130000000</t>
-  </si>
-  <si>
-    <t>143098646.4475000000</t>
-  </si>
-  <si>
-    <t>159107062.7376000000</t>
-  </si>
-  <si>
-    <t>386074457.9717000000</t>
-  </si>
-  <si>
-    <t>942356043.2186000000</t>
-  </si>
-  <si>
-    <t>1529801437.4600000000</t>
-  </si>
-  <si>
-    <t>76773314.5370000000</t>
+    <t>63235103.2073000000</t>
+  </si>
+  <si>
+    <t>69139299.7036000000</t>
+  </si>
+  <si>
+    <t>75043307.6755000000</t>
   </si>
   <si>
     <t>87262431.4004000000</t>
   </si>
   <si>
-    <t>57267566.0352000000</t>
-  </si>
-  <si>
-    <t>83944131.2465000000</t>
-  </si>
-  <si>
-    <t>69863179.8559000000</t>
+    <t>99802637.6575000000</t>
+  </si>
+  <si>
+    <t>104126641.2693000000</t>
+  </si>
+  <si>
+    <t>122393466.9150000000</t>
+  </si>
+  <si>
+    <t>239925309.9557000000</t>
+  </si>
+  <si>
+    <t>718687294.6653000000</t>
+  </si>
+  <si>
+    <t>1337523051.6000000000</t>
+  </si>
+  <si>
+    <t>62936645.5692000000</t>
+  </si>
+  <si>
+    <t>57216491.8008000000</t>
+  </si>
+  <si>
+    <t>40793022.6643000000</t>
+  </si>
+  <si>
+    <t>29222667.4344000000</t>
+  </si>
+  <si>
+    <t>528226148.6507000000</t>
+  </si>
+  <si>
+    <t>616579481.0709000000</t>
+  </si>
+  <si>
+    <t>320205345.7562000000</t>
+  </si>
+  <si>
+    <t>482421071.3312000000</t>
+  </si>
+  <si>
+    <t>266489238.9168000000</t>
+  </si>
+  <si>
+    <t>325447060.2942000000</t>
+  </si>
+  <si>
+    <t>65262313.8000000000</t>
+  </si>
+  <si>
+    <t>993706429.9048000000</t>
+  </si>
+  <si>
+    <t>3802176814.4253000000</t>
+  </si>
+  <si>
+    <t>460093615.6200000000</t>
+  </si>
+  <si>
+    <t>398491211.5481000000</t>
+  </si>
+  <si>
+    <t>493710501.1708000000</t>
   </si>
   <si>
     <t>501495042.2653000000</t>
   </si>
   <si>
-    <t>325362919.8542000000</t>
-  </si>
-  <si>
-    <t>320205345.7562000000</t>
-  </si>
-  <si>
-    <t>266489238.9168000000</t>
-  </si>
-  <si>
-    <t>65262313.8000000000</t>
-  </si>
-  <si>
-    <t>364916821.4119000000</t>
-  </si>
-  <si>
-    <t>616579481.0709000000</t>
-  </si>
-  <si>
-    <t>990744285.0048000000</t>
-  </si>
-  <si>
-    <t>3801513299.8127000000</t>
-  </si>
-  <si>
-    <t>419251919.6200000000</t>
-  </si>
-  <si>
-    <t>398491211.5481000000</t>
-  </si>
-  <si>
-    <t>482204031.3312000000</t>
-  </si>
-  <si>
-    <t>493710501.1708000000</t>
-  </si>
-  <si>
-    <t>528057105.3507000000</t>
-  </si>
-  <si>
     <t>528341947.6822000000</t>
   </si>
   <si>
@@ -239,13 +230,13 @@
     <t>791984525.0500000000</t>
   </si>
   <si>
-    <t>34978969.3600000000</t>
+    <t>36531418.2500000000</t>
   </si>
   <si>
     <t>23206308.4600000000</t>
   </si>
   <si>
-    <t>43188313.0900000000</t>
+    <t>43277398.8700000000</t>
   </si>
   <si>
     <t>400436200.3424000000</t>
@@ -263,16 +254,16 @@
     <t>31144330.8000000000</t>
   </si>
   <si>
-    <t>314888994.0700000000</t>
+    <t>316195013.3000000000</t>
   </si>
   <si>
     <t>51213861.0000000000</t>
   </si>
   <si>
-    <t>7103251702.8165000000</t>
-  </si>
-  <si>
-    <t>12484827127.4600000000</t>
+    <t>7108753624.0165000000</t>
+  </si>
+  <si>
+    <t>12497376240.4600000000</t>
   </si>
   <si>
     <t>288447130.6636000000</t>
@@ -645,7 +636,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -667,10 +658,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -678,10 +669,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -689,10 +680,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -700,10 +691,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -711,10 +702,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -722,10 +713,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -733,10 +724,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -744,10 +735,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -755,10 +746,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -766,10 +757,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -777,10 +768,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -788,10 +779,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -799,10 +790,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -810,21 +801,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -842,7 +822,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -853,167 +833,167 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
